--- a/HW3_Excel1/HW3_114306021.xlsx
+++ b/HW3_Excel1/HW3_114306021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nianruicheng/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0642ECD2-471E-3642-8269-44140F53D0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9945F96-92AE-A943-B927-6E746F479E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="760" windowWidth="16300" windowHeight="16520" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="520" yWindow="2600" windowWidth="16300" windowHeight="16520" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>何大美</t>
   </si>
@@ -237,6 +237,14 @@
       </rPr>
       <t>ò</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -338,11 +346,11 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -358,11 +366,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -681,7 +689,343 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> porpotion of fail and pass</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$N$2:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>fail</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$O$2:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18CA-5D4E-BD0C-2A0B93A23293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1224,6 +1568,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1257,6 +2120,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166626</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>299502</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="圖表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064BB28-10A0-1EB6-3039-D9CCDB4E5CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1562,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1577,7 +2476,7 @@
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,7 +2514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1656,8 +2555,15 @@
         <f t="array" ref="L2">_xlfn.IFS(J2&gt;=60,"pass",J2&gt;=0,"fail")</f>
         <v>pass</v>
       </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(L2:L15,"fail")</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1698,8 +2604,15 @@
         <f t="array" ref="L3">_xlfn.IFS(J3&gt;=60,"pass",J3&gt;=0,"fail")</f>
         <v>pass</v>
       </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIF(L2:L15,"pass")</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -1741,7 +2654,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1783,7 +2696,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1825,7 +2738,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1867,7 +2780,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1909,7 +2822,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1951,7 +2864,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -1993,7 +2906,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2035,7 +2948,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2077,7 +2990,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2119,7 +3032,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2161,7 +3074,7 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2203,7 +3116,7 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:15" ht="16">
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
@@ -2246,22 +3159,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L12">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
